--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -441,32 +441,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leo</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>1234</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jada</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>129839</t>
         </is>
       </c>
     </row>
